--- a/LIS FIS 2023-Lista de Cotejo SEGUNDA-PRIMERA_STOCKMASTER PRO.xlsx
+++ b/LIS FIS 2023-Lista de Cotejo SEGUNDA-PRIMERA_STOCKMASTER PRO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lcaballero\2024\FMAT\FIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B758F600-1E0D-48FF-A451-048645F1E43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF305289-BC54-4808-94E5-93753B83DBDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DBDBD91F-58B3-7D45-AEAB-8508DE984923}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="86">
   <si>
     <t>Nivel de Calidad de Evidencia</t>
   </si>
@@ -483,23 +483,20 @@
     <t>Aquí la evidencia es la tabla de gestión</t>
   </si>
   <si>
-    <t>En este primera entrega las historias de usuario aún no tenían definido los criterios de aceptación</t>
-  </si>
-  <si>
-    <t>Las historias de usuario no tienen el formato de Quién-qué-para qué</t>
-  </si>
-  <si>
-    <t>En la tabla de gestión no se tiene el dato de la prioridad</t>
-  </si>
-  <si>
-    <t>El alcance es definido. Faltó definir los alcances y limitaciones</t>
+    <t>Alguna limitación?</t>
+  </si>
+  <si>
+    <t>En la tabla de gestión no se tiene el dato de la prioridad. Lo consideraron en algún otro documento?</t>
+  </si>
+  <si>
+    <t>Criterios de aceptación</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -624,6 +621,12 @@
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -944,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1099,6 +1102,24 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1117,23 +1138,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1541,7 +1547,7 @@
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1555,19 +1561,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="57"/>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="A1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="H2" s="36">
         <v>0</v>
       </c>
@@ -1582,10 +1588,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1600,10 +1606,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:11">
       <c r="H5" s="14" t="s">
@@ -1632,7 +1638,7 @@
       <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" ht="39" customHeight="1" thickTop="1" thickBot="1">
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="62" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -1642,14 +1648,14 @@
         <v>12</v>
       </c>
       <c r="H7" s="55">
-        <v>2</v>
-      </c>
-      <c r="I7" s="62" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="I7" s="56" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="63.95" customHeight="1" thickBot="1">
-      <c r="B8" s="56"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
@@ -1661,23 +1667,23 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="63" customHeight="1">
-      <c r="B9" s="56"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="66">
+      <c r="H9" s="60">
         <v>3</v>
       </c>
       <c r="I9" s="44"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="H10" s="67"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:11" ht="75" customHeight="1">
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="11" t="s">
@@ -1686,60 +1692,58 @@
       <c r="D11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="66">
-        <v>2</v>
-      </c>
-      <c r="I11" s="62" t="s">
-        <v>84</v>
-      </c>
+      <c r="H11" s="60">
+        <v>3</v>
+      </c>
+      <c r="I11" s="56"/>
     </row>
     <row r="12" spans="1:11" ht="53.1" customHeight="1" thickBot="1">
-      <c r="B12" s="56"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="58">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="54.95" customHeight="1" thickBot="1">
-      <c r="B13" s="56"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="66">
+      <c r="H13" s="60">
         <v>2</v>
       </c>
-      <c r="I13" s="62" t="s">
-        <v>85</v>
+      <c r="I13" s="68" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="76.5" customHeight="1">
-      <c r="B14" s="56"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="66">
+      <c r="H14" s="60">
         <v>3</v>
       </c>
-      <c r="I14" s="62" t="s">
-        <v>83</v>
+      <c r="I14" s="68" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1">
       <c r="H15" s="54"/>
     </row>
     <row r="16" spans="1:11" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="62" t="s">
         <v>26</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -1748,49 +1752,49 @@
       <c r="D16" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="66">
+      <c r="H16" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="59.1" customHeight="1">
-      <c r="B17" s="56"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="64">
+      <c r="H17" s="58">
         <v>3</v>
       </c>
-      <c r="I17" s="62" t="s">
+      <c r="I17" s="56" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B18" s="56"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D18" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="66">
+      <c r="H18" s="60">
         <v>3</v>
       </c>
-      <c r="I18" s="62" t="s">
+      <c r="I18" s="56" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="38.25">
-      <c r="B19" s="56"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="H19" s="66">
+      <c r="H19" s="60">
         <v>3</v>
       </c>
     </row>
@@ -1798,7 +1802,7 @@
       <c r="H20" s="54"/>
     </row>
     <row r="21" spans="2:9" ht="77.25" thickBot="1">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="65" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -1807,31 +1811,31 @@
       <c r="D21" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="66">
+      <c r="H21" s="60">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="25.5">
-      <c r="B22" s="59"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="58">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:9" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="59"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H23" s="66">
+      <c r="H23" s="60">
         <v>3</v>
       </c>
     </row>
@@ -1839,7 +1843,7 @@
       <c r="H24" s="54"/>
     </row>
     <row r="25" spans="2:9" ht="36.75" thickBot="1">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="62" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -1848,19 +1852,19 @@
       <c r="D25" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="63">
+      <c r="H25" s="57">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:9" ht="36">
-      <c r="B26" s="56"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
       <c r="D26" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="H26" s="65">
+      <c r="H26" s="59">
         <v>3</v>
       </c>
     </row>
@@ -1870,7 +1874,7 @@
       </c>
       <c r="H28">
         <f>SUM(H7:H9,H11:H14,H16:H19,H21:H23,H25:H26)/(16*3)</f>
-        <v>0.9375</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="29" spans="2:9">
@@ -1879,7 +1883,7 @@
       </c>
       <c r="H29">
         <f>H28*0.1</f>
-        <v>9.375E-2</v>
+        <v>9.7916666666666666E-2</v>
       </c>
     </row>
   </sheetData>
@@ -1916,21 +1920,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="H1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
       <c r="H2" s="36">
         <v>0</v>
       </c>
@@ -1945,10 +1949,10 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" thickBot="1">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="H3" s="38" t="s">
         <v>1</v>
       </c>
@@ -1963,10 +1967,10 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="58"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
     </row>
     <row r="5" spans="1:11">
       <c r="H5" s="14" t="s">
@@ -2010,7 +2014,7 @@
       <c r="H8" s="43"/>
     </row>
     <row r="9" spans="1:11" ht="68.099999999999994" customHeight="1" thickBot="1">
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="62" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -2022,7 +2026,7 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="83.1" customHeight="1">
-      <c r="B10" s="56"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="15" t="s">
         <v>53</v>
       </c>
@@ -2032,7 +2036,7 @@
       <c r="H10" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="39" thickBot="1">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="62" t="s">
         <v>55</v>
       </c>
       <c r="C12" s="11" t="s">
@@ -2044,7 +2048,7 @@
       <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="51">
-      <c r="B13" s="56"/>
+      <c r="B13" s="62"/>
       <c r="C13" s="15" t="s">
         <v>58</v>
       </c>
@@ -2065,7 +2069,7 @@
     </row>
     <row r="15" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="16" spans="1:11" ht="38.1" customHeight="1" thickBot="1">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="62" t="s">
         <v>62</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -2077,7 +2081,7 @@
       <c r="H16" s="42"/>
     </row>
     <row r="17" spans="2:8" ht="71.099999999999994" customHeight="1">
-      <c r="B17" s="56"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="15" t="s">
         <v>29</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="H17" s="41"/>
     </row>
     <row r="18" spans="2:8" ht="81.95" customHeight="1" thickBot="1">
-      <c r="B18" s="56"/>
+      <c r="B18" s="62"/>
       <c r="C18" s="1" t="s">
         <v>31</v>
       </c>
@@ -2097,7 +2101,7 @@
       <c r="H18" s="42"/>
     </row>
     <row r="19" spans="2:8" ht="51">
-      <c r="B19" s="56"/>
+      <c r="B19" s="62"/>
       <c r="C19" s="7" t="s">
         <v>33</v>
       </c>
@@ -2108,7 +2112,7 @@
     </row>
     <row r="20" spans="2:8" ht="16.5" thickBot="1"/>
     <row r="21" spans="2:8" ht="77.25" thickBot="1">
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="65" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="26" t="s">
@@ -2120,7 +2124,7 @@
       <c r="H21" s="42"/>
     </row>
     <row r="22" spans="2:8" ht="25.5">
-      <c r="B22" s="59"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="27" t="s">
         <v>38</v>
       </c>
@@ -2130,7 +2134,7 @@
       <c r="H22" s="41"/>
     </row>
     <row r="23" spans="2:8" ht="36" customHeight="1" thickBot="1">
-      <c r="B23" s="59"/>
+      <c r="B23" s="65"/>
       <c r="C23" s="20" t="s">
         <v>40</v>
       </c>
@@ -2140,7 +2144,7 @@
       <c r="H23" s="42"/>
     </row>
     <row r="25" spans="2:8" ht="36.75" thickBot="1">
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="62" t="s">
         <v>42</v>
       </c>
       <c r="C25" s="22" t="s">
@@ -2152,7 +2156,7 @@
       <c r="H25" s="42"/>
     </row>
     <row r="26" spans="2:8" ht="36">
-      <c r="B26" s="56"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="24" t="s">
         <v>45</v>
       </c>
@@ -2262,84 +2266,84 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="69.95" customHeight="1">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="66" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="66" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="66" t="s">
         <v>79</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2363,15 +2367,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC989ECCC8B7AB4EA23CFB69585B4A70" ma:contentTypeVersion="3" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="916e6eb0d82bab40262ee748395e3d30">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="188a5053-cf46-4829-a43d-8f4e43557bfc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e968e44d62efd30be41830a10ee7cbce" ns2:_="">
     <xsd:import namespace="188a5053-cf46-4829-a43d-8f4e43557bfc"/>
@@ -2509,6 +2504,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{758E0C9F-22C5-4206-988A-ED4D0E9DA74C}">
   <ds:schemaRefs>
@@ -2519,14 +2523,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BFE91A6-F782-4B1A-AC0B-52715868B243}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2542,4 +2538,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BBEF48E-FC36-4C6E-9A65-4F854EFC868A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>